--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayly\OneDrive - University of Utah\.UofU\.Masters\3.Fall2024\3.ECE6950 Research\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2397" documentId="13_ncr:1_{20491D22-FC63-4124-B1EB-4AAD71F962F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEBDD5E-B984-457A-A6EF-53A182653888}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -619,7 +619,7 @@
         <v>180</v>
       </c>
       <c r="H4" s="13" t="str">
-        <f t="shared" ref="H3:H66" si="1">IFERROR( IF(G4="","",CONCATENATE(       IF(INT(G4/60)=0,          "", CONCATENATE(INT(G4/60),"h") ), " ",  IF(INT(G4/60)=G4/60, "", CONCATENATE(ROUND((G4/60-INT(G4/60) )*60,2),   "min")))), G4)</f>
+        <f t="shared" ref="H4:H66" si="1">IFERROR( IF(G4="","",CONCATENATE(       IF(INT(G4/60)=0,          "", CONCATENATE(INT(G4/60),"h") ), " ",  IF(INT(G4/60)=G4/60, "", CONCATENATE(ROUND((G4/60-INT(G4/60) )*60,2),   "min")))), G4)</f>
         <v xml:space="preserve">3h </v>
       </c>
     </row>
@@ -649,13 +649,22 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>45540</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayly\OneDrive - University of Utah\.UofU\.Masters\3.Fall2024\3.ECE6950 Research\.github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCFB5B5-13EF-46FC-9FFC-7099631E0C8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -563,11 +563,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>9.5833333333333339</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -658,13 +658,19 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>errE.orB</v>
+        <v>110</v>
       </c>
       <c r="H6" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>errE.orB</v>
+        <v>1h 50min</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -678,13 +684,28 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G8" s="5" t="str">
+      <c r="A8" s="12">
+        <v>45545</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>75</v>
       </c>
       <c r="H8" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1h 15min</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDCFB5B5-13EF-46FC-9FFC-7099631E0C8C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC0EDBC-472E-44A4-B368-CF593D98D940}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -709,13 +713,22 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>45546</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC0EDBC-472E-44A4-B368-CF593D98D940}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A91FF4-3CEF-4E6F-A1EA-74A4167C32DF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>12.666666666666666</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -722,13 +722,19 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>errE.orB</v>
+        <v>340</v>
       </c>
       <c r="H9" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>errE.orB</v>
+        <v>5h 40min</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A91FF4-3CEF-4E6F-A1EA-74A4167C32DF}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618F8097-C71B-42C5-9A70-6EF70E475907}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>18.333333333333332</v>
+        <v>19.75</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -748,13 +748,28 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5" t="str">
+      <c r="A11" s="12">
+        <v>45552</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>85</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1h 25min</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{618F8097-C71B-42C5-9A70-6EF70E475907}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1EEAA0D-EDB4-43D9-A902-2960493CF27C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,8 +519,8 @@
   <dimension ref="A1:M1999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>19.75</v>
+        <v>26.25</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>0.82</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -773,13 +773,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5" t="str">
+      <c r="A12" s="12">
+        <v>45553</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>390</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>6h 30min</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1EEAA0D-EDB4-43D9-A902-2960493CF27C}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E52B72D-0B32-4915-AAE2-ADB327230794}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>26.25</v>
+        <v>27.333333333333332</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>1.0900000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -798,13 +798,28 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5" t="str">
+      <c r="A13" s="12">
+        <v>45554</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v/>
+        <v>65</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1h 5min</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E52B72D-0B32-4915-AAE2-ADB327230794}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B8EB58E-F733-4F2B-99DB-7309A5A21D8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -833,13 +833,22 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>45559</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B8EB58E-F733-4F2B-99DB-7309A5A21D8C}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B895561D-3939-4255-8B73-0AD1E3D464D2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -567,11 +567,11 @@
       </c>
       <c r="K1" s="10">
         <f>SUM(G:G)/60</f>
-        <v>27.333333333333332</v>
+        <v>28.366666666666667</v>
       </c>
       <c r="L1" s="3">
         <f>ROUND(K1/24,2)</f>
-        <v>1.1399999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>2</v>
@@ -842,13 +842,19 @@
       <c r="C15">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>errE.orB</v>
+        <v>62</v>
       </c>
       <c r="H15" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>errE.orB</v>
+        <v>1h 2min</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">

--- a/TimeTrack-Research.xlsx
+++ b/TimeTrack-Research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofutah-my.sharepoint.com/personal/u1303491_umail_utah_edu/Documents/.UofU/.Masters/3.Fall2024/3.ECE6950 Research/.github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B895561D-3939-4255-8B73-0AD1E3D464D2}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{A76507BF-97F9-4E2B-8ED5-9A28F209F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82DDDBDF-5600-45CC-879E-025473E7EE7C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -858,13 +858,22 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>45560</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
       <c r="H16" s="13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>errE.orB</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.35">
